--- a/trading_data/strategy spreadsheets/ABCD/ABCD strategy.xlsx
+++ b/trading_data/strategy spreadsheets/ABCD/ABCD strategy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\trade_analysis\trading_data\strategy spreadsheets\ABCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C1E7A-8586-43D6-9AD2-0D1D9B8EC3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A35DD1-4955-41FA-B9FD-6E7B5CE01E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A0FAB7E-A266-4BC4-AE10-FC3D883D02B9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>ticker</t>
   </si>
@@ -105,9 +105,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Risk:Reward</t>
-  </si>
-  <si>
     <t>shares_outstanding</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>INO</t>
   </si>
   <si>
-    <t>num_new_lows</t>
-  </si>
-  <si>
     <t>1:5</t>
   </si>
   <si>
@@ -148,6 +142,30 @@
   </si>
   <si>
     <t>1:2.5</t>
+  </si>
+  <si>
+    <t>GRPN</t>
+  </si>
+  <si>
+    <t># patterns in first 2 hours</t>
+  </si>
+  <si>
+    <t>Risk:Reward (with partials)</t>
+  </si>
+  <si>
+    <t>number of significant new lows</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>WKHS</t>
+  </si>
+  <si>
+    <t>Calculated Price In (=*2-*2/4) 3/4 above 'B'</t>
   </si>
 </sst>
 </file>
@@ -158,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -203,15 +221,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -222,10 +238,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,108 +563,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB25E0E-66AF-4D72-A181-3B6C1C54B677}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="15" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="9" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="11" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="11" customWidth="1"/>
-    <col min="22" max="22" width="25" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" style="9" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" style="19" customWidth="1"/>
+    <col min="23" max="23" width="37.28515625" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
+      <c r="B1" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="24"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -655,58 +682,66 @@
       <c r="D2" s="3">
         <v>51.34</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>436.2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>0.28000000000000003</v>
       </c>
       <c r="G2" s="5">
         <v>0.53400000000000003</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>25</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="17">
         <v>0.47569444444444442</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>5.1100000000000003</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <v>5</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>5.62</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="11">
+      <c r="N2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="9">
         <v>5.44</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <v>4.8899999999999997</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="9">
         <v>5.1100000000000003</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="9">
         <v>5.62</v>
       </c>
-      <c r="T2" s="11">
-        <f>P2-Q2</f>
+      <c r="T2" s="9">
+        <f t="shared" ref="T2:T16" si="0">P2-Q2</f>
         <v>0.55000000000000071</v>
       </c>
-      <c r="U2" s="11">
-        <f>R2-Q2</f>
+      <c r="U2" s="9">
+        <f t="shared" ref="U2:U16" si="1">R2-Q2</f>
         <v>0.22000000000000064</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V2" s="19">
+        <v>2</v>
+      </c>
+      <c r="W2" s="9">
+        <f t="shared" ref="W2:W16" si="2">P2-T2/4</f>
+        <v>5.3025000000000002</v>
+      </c>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -719,60 +754,67 @@
       <c r="D3" s="3">
         <v>51.34</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>436.2</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>0.28000000000000003</v>
       </c>
       <c r="G3" s="5">
         <v>0.53400000000000003</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>30</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>0.5</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>5.5</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>5.42</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>6</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="11">
+      <c r="N3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="9">
         <v>5.62</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>5.35</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <v>5.5</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="9">
         <v>5.75</v>
       </c>
-      <c r="T3" s="11">
-        <f>P3-Q3</f>
+      <c r="T3" s="9">
+        <f t="shared" si="0"/>
         <v>0.27000000000000046</v>
       </c>
-      <c r="U3" s="11">
-        <f>R3-Q3</f>
+      <c r="U3" s="9">
+        <f t="shared" si="1"/>
         <v>0.15000000000000036</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V3" s="19">
+        <v>2</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5525000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4">
         <v>44005</v>
@@ -783,63 +825,70 @@
       <c r="D4" s="3">
         <v>154.65</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>3420</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>3.12</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>0.13</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>60</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>0.46527777777777773</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>0.47569444444444442</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>17.95</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>17.850000000000001</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <v>18.600000000000001</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="21">
+      <c r="N4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="19">
         <v>2</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>18.45</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="9">
         <v>17.3</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <v>17.95</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="9">
         <v>18.45</v>
       </c>
-      <c r="T4" s="11">
-        <f>P4-Q4</f>
+      <c r="T4" s="9">
+        <f t="shared" si="0"/>
         <v>1.1499999999999986</v>
       </c>
-      <c r="U4" s="11">
-        <f>R4-Q4</f>
+      <c r="U4" s="9">
+        <f t="shared" si="1"/>
         <v>0.64999999999999858</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V4" s="19">
+        <v>3</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="2"/>
+        <v>18.162500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>44005</v>
@@ -850,63 +899,70 @@
       <c r="D5" s="3">
         <v>154.65</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>3420</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>3.12</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>0.13</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>20</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>0.50138888888888888</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>0.50624999999999998</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>19.45</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>19.350000000000001</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>20.3</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="21">
+      <c r="N5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="19">
         <v>1</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9">
         <v>19.8</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="9">
         <v>18.8</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="9">
         <v>19.43</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <v>20.3</v>
       </c>
-      <c r="T5" s="11">
-        <f>P5-Q5</f>
+      <c r="T5" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U5" s="11">
-        <f>R5-Q5</f>
+      <c r="U5" s="9">
+        <f t="shared" si="1"/>
         <v>0.62999999999999901</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V5" s="19">
+        <v>3</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="2"/>
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>44005</v>
@@ -917,64 +973,70 @@
       <c r="D6" s="3">
         <v>154.65</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>3420</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>3.12</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>0.13</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>10</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>0.5180555555555556</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>0.5229166666666667</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>20.55</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>20.45</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>21.35</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="21">
+      <c r="N6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="19">
         <v>1</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="9">
         <v>20.88</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <v>20.02</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="9">
         <v>20.55</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <v>21.33</v>
       </c>
-      <c r="T6" s="11">
-        <f>P6-Q6</f>
+      <c r="T6" s="9">
+        <f t="shared" si="0"/>
         <v>0.85999999999999943</v>
       </c>
-      <c r="U6" s="11">
-        <f>R6-Q6</f>
+      <c r="U6" s="9">
+        <f t="shared" si="1"/>
         <v>0.53000000000000114</v>
       </c>
-      <c r="V6" s="11"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V6" s="19">
+        <v>3</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="2"/>
+        <v>20.664999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4">
         <v>44049</v>
@@ -985,63 +1047,70 @@
       <c r="D7" s="3">
         <v>502.37</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>6420</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>0.83</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>0.04</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>45</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>0.42708333333333331</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>12.75</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>12.65</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>13.05</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="21">
+      <c r="N7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="19">
         <v>1</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="9">
         <v>12.96</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="9">
         <v>12.47</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="9">
         <v>12.76</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="9">
         <v>13.05</v>
       </c>
-      <c r="T7" s="11">
-        <f>P7-Q7</f>
+      <c r="T7" s="9">
+        <f t="shared" si="0"/>
         <v>0.49000000000000021</v>
       </c>
-      <c r="U7" s="11">
-        <f>R7-Q7</f>
+      <c r="U7" s="9">
+        <f t="shared" si="1"/>
         <v>0.28999999999999915</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V7" s="19">
+        <v>3</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="2"/>
+        <v>12.8375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4">
         <v>44049</v>
@@ -1052,63 +1121,70 @@
       <c r="D8" s="3">
         <v>502.37</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>6420</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>0.83</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>0.04</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>15</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <v>0.4236111111111111</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>12.75</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>12.7</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>13</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="21">
+      <c r="N8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="19">
         <v>1</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="9">
         <v>12.84</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="9">
         <v>12.62</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="9">
         <v>12.76</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="9">
         <v>13.05</v>
       </c>
-      <c r="T8" s="11">
-        <f>P8-Q8</f>
+      <c r="T8" s="9">
+        <f t="shared" si="0"/>
         <v>0.22000000000000064</v>
       </c>
-      <c r="U8" s="11">
-        <f>R8-Q8</f>
+      <c r="U8" s="9">
+        <f t="shared" si="1"/>
         <v>0.14000000000000057</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V8" s="19">
+        <v>3</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="2"/>
+        <v>12.785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4">
         <v>44049</v>
@@ -1119,71 +1195,621 @@
       <c r="D9" s="3">
         <v>502.37</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>6420</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>0.83</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>0.04</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>20</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>0.42708333333333331</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <v>0.44097222222222227</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>12.98</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>12.92</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>13.3</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>13.05</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>12.84</v>
+      </c>
+      <c r="R9" s="9">
+        <v>12.95</v>
+      </c>
+      <c r="S9" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="V9" s="19">
+        <v>3</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="2"/>
+        <v>12.9975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="21">
+      <c r="B10" s="4">
+        <v>44050</v>
+      </c>
+      <c r="C10" s="20">
+        <v>28.37</v>
+      </c>
+      <c r="D10" s="20">
+        <v>22.19</v>
+      </c>
+      <c r="E10" s="9">
+        <v>473.76</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="H10" s="15">
+        <v>50</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="K10" s="9">
+        <v>22.95</v>
+      </c>
+      <c r="L10" s="9">
+        <v>22.85</v>
+      </c>
+      <c r="M10" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="19">
         <v>1</v>
       </c>
-      <c r="P9" s="11">
-        <v>13.05</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="P10" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>22.04</v>
+      </c>
+      <c r="R10" s="9">
+        <v>22.95</v>
+      </c>
+      <c r="S10" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999994</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="V10" s="19">
+        <v>2</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="2"/>
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44050</v>
+      </c>
+      <c r="C11" s="20">
+        <v>28.37</v>
+      </c>
+      <c r="D11" s="20">
+        <v>22.19</v>
+      </c>
+      <c r="E11" s="9">
+        <v>473.76</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="H11" s="15">
+        <v>25</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="K11" s="9">
+        <v>23.27</v>
+      </c>
+      <c r="L11" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>22.41</v>
+      </c>
+      <c r="R11" s="9">
+        <v>23.27</v>
+      </c>
+      <c r="S11" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1900000000000013</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.85999999999999943</v>
+      </c>
+      <c r="V11" s="19">
+        <v>2</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="2"/>
+        <v>23.302500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44050</v>
+      </c>
+      <c r="C12" s="20">
+        <v>147.22999999999999</v>
+      </c>
+      <c r="D12" s="20">
+        <v>143.35</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1052</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3.18</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="15">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="K12" s="9">
+        <v>84.32</v>
+      </c>
+      <c r="L12" s="9">
+        <v>84</v>
+      </c>
+      <c r="M12" s="9">
+        <v>85.1</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="19">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>84.75</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>83.3</v>
+      </c>
+      <c r="R12" s="9">
+        <v>84.32</v>
+      </c>
+      <c r="S12" s="9">
+        <v>85.1</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000028</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="1"/>
+        <v>1.019999999999996</v>
+      </c>
+      <c r="V12" s="19">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="2"/>
+        <v>84.387500000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44011</v>
+      </c>
+      <c r="C13" s="20">
+        <v>68.47</v>
+      </c>
+      <c r="D13" s="20">
+        <v>58.5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1180</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="H13" s="15">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="K13" s="9">
+        <v>11.82</v>
+      </c>
+      <c r="L13" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="M13" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>12.11</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>11.26</v>
+      </c>
+      <c r="R13" s="9">
+        <v>11.82</v>
+      </c>
+      <c r="S13" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="V13" s="19">
+        <v>4</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="2"/>
+        <v>11.897499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44011</v>
+      </c>
+      <c r="C14" s="20">
+        <v>68.47</v>
+      </c>
+      <c r="D14" s="20">
+        <v>58.5</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1180</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="H14" s="15">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="K14" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="L14" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>12.11</v>
+      </c>
+      <c r="R14" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="S14" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29000000000000092</v>
+      </c>
+      <c r="V14" s="19">
+        <v>4</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="2"/>
+        <v>12.4025</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44011</v>
+      </c>
+      <c r="C15" s="20">
+        <v>68.47</v>
+      </c>
+      <c r="D15" s="20">
+        <v>58.5</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1180</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="H15" s="15">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="K15" s="9">
+        <v>13</v>
+      </c>
+      <c r="L15" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="M15" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>13.36</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>12.76</v>
+      </c>
+      <c r="R15" s="9">
+        <v>13</v>
+      </c>
+      <c r="S15" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="V15" s="19">
+        <v>4</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="2"/>
+        <v>13.209999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44011</v>
+      </c>
+      <c r="C16" s="20">
+        <v>68.47</v>
+      </c>
+      <c r="D16" s="20">
+        <v>58.5</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1180</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="H16" s="15">
+        <v>18</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K16" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="L16" s="9">
+        <v>13.1</v>
+      </c>
+      <c r="M16" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="19">
+        <v>1</v>
+      </c>
+      <c r="P16" s="9">
+        <v>13.62</v>
+      </c>
+      <c r="Q16" s="9">
         <v>12.84</v>
       </c>
-      <c r="R9" s="11">
-        <v>12.95</v>
-      </c>
-      <c r="S9" s="17">
-        <v>13.3</v>
-      </c>
-      <c r="T9" s="11">
-        <f>P9-Q9</f>
-        <v>0.21000000000000085</v>
-      </c>
-      <c r="U9" s="11">
-        <f>R9-Q9</f>
-        <v>0.10999999999999943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
-        <f>AVERAGE(H2:H9)</f>
-        <v>28.125</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="R16" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="S16" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.77999999999999936</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="V16" s="19">
+        <v>4</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="2"/>
+        <v>13.424999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="O19" s="15"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="23" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="H24" s="15">
+        <f>AVERAGE(H2:H16)</f>
+        <v>25.066666666666666</v>
+      </c>
+      <c r="O24" s="15">
+        <f>AVERAGE(O2:O16)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="T24" s="3">
+        <f>AVERAGE(T2:T16)</f>
+        <v>0.75800000000000023</v>
+      </c>
+      <c r="U24" s="3">
+        <f>AVERAGE(U2:U16)</f>
+        <v>0.47733333333333311</v>
+      </c>
+      <c r="V24" s="3">
+        <f>AVERAGE(V2,V4,V7,V10,V12,V13)</f>
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
